--- a/states/Belgio.xlsx
+++ b/states/Belgio.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
   <si>
     <t>timestamp</t>
   </si>
@@ -148,19 +148,58 @@
     <t>exchange_import</t>
   </si>
   <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>82%</t>
-  </si>
-  <si>
-    <t>35%</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Germania,1000000.0,-319410.0,657.93; Lussemburgo,nan,-177840.0,366.32; Paesi Bassi,nan,-23400.0,48.2;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Francia,nan,498420.0,689.26; Gran Bretagna,1000000.0,394290.0,1518.3;</t>
+    <t>21:02 13-04-2022</t>
+  </si>
+  <si>
+    <t>23:20 13-04-2022</t>
+  </si>
+  <si>
+    <t>23:32 13-04-2022</t>
+  </si>
+  <si>
+    <t>23:51 13-04-2022</t>
+  </si>
+  <si>
+    <t>00:22 14-04-2022</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>80%</t>
+  </si>
+  <si>
+    <t>79%</t>
+  </si>
+  <si>
+    <t>75%</t>
+  </si>
+  <si>
+    <t>32%</t>
+  </si>
+  <si>
+    <t>31%</t>
+  </si>
+  <si>
+    <t>28%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Germania,1000000.0,-436800.0,978.9; Lussemburgo,nan,-84000.0,188.25;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Germania,1000000.0,-436800.0,998.4; Lussemburgo,nan,-84000.0,192.0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Germania,1000000.0,-204240.0,524.4; Francia,nan,-397380.0,1020.3; Gran Bretagna,1000000.0,-164280.0,421.8; Lussemburgo,nan,-69930.0,179.55;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Francia,nan,92960.0,128.01; Gran Bretagna,1000000.0,324800.0,1385.52; Paesi Bassi,nan,377440.0,2846.34;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Francia,nan,92960.0,133.12; Gran Bretagna,1000000.0,320320.0,1763.84; Paesi Bassi,nan,377440.0,2954.24;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Paesi Bassi,nan,1158840.0,9006.0;</t>
   </si>
 </sst>
 </file>
@@ -518,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AR2"/>
+  <dimension ref="A1:AR6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -659,128 +698,517 @@
       </c>
     </row>
     <row r="2" spans="1:44">
-      <c r="B2" t="s">
+      <c r="A2" t="s">
         <v>44</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:44">
+      <c r="A3" t="s">
         <v>45</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3">
+        <v>135</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3">
+        <v>11200000</v>
+      </c>
+      <c r="F3">
+        <v>25100</v>
+      </c>
+      <c r="G3">
+        <v>5940000</v>
+      </c>
+      <c r="H3">
+        <v>5231520</v>
+      </c>
+      <c r="I3">
+        <v>1044.16</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1050000</v>
+      </c>
+      <c r="N3">
+        <v>422240</v>
+      </c>
+      <c r="O3">
+        <v>1616.44</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>69440</v>
+      </c>
+      <c r="R3">
+        <v>948.78</v>
+      </c>
+      <c r="S3">
+        <v>4880000</v>
+      </c>
+      <c r="T3">
+        <v>2744000</v>
+      </c>
+      <c r="U3">
+        <v>502</v>
+      </c>
+      <c r="V3">
+        <v>5900000</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>177000</v>
+      </c>
+      <c r="Z3">
+        <v>1120</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>1310000</v>
+      </c>
+      <c r="AC3">
+        <v>210560</v>
+      </c>
+      <c r="AD3">
+        <v>504.51</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>7340000</v>
+      </c>
+      <c r="AI3">
+        <v>1130080</v>
+      </c>
+      <c r="AJ3">
+        <v>9204.17</v>
+      </c>
+      <c r="AK3">
+        <v>280000</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>594720</v>
+      </c>
+      <c r="AP3">
+        <v>6920.07</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44">
+      <c r="A4" t="s">
         <v>46</v>
       </c>
-      <c r="E2">
-        <v>11700000</v>
-      </c>
-      <c r="F2">
-        <v>24100</v>
-      </c>
-      <c r="G2">
+      <c r="B4">
+        <v>135</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4">
+        <v>11200000</v>
+      </c>
+      <c r="F4">
+        <v>25100</v>
+      </c>
+      <c r="G4">
         <v>5940000</v>
       </c>
-      <c r="H2">
-        <v>5205330</v>
-      </c>
-      <c r="I2">
-        <v>1041.12</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
+      <c r="H4">
+        <v>5231520</v>
+      </c>
+      <c r="I4">
+        <v>1044.16</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
         <v>1050000</v>
       </c>
-      <c r="N2">
-        <v>417690</v>
-      </c>
-      <c r="O2">
-        <v>1600.24</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>69030</v>
-      </c>
-      <c r="R2">
-        <v>937.49</v>
-      </c>
-      <c r="S2">
+      <c r="N4">
+        <v>422240</v>
+      </c>
+      <c r="O4">
+        <v>1616.44</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>69440</v>
+      </c>
+      <c r="R4">
+        <v>948.78</v>
+      </c>
+      <c r="S4">
         <v>4880000</v>
       </c>
-      <c r="T2">
-        <v>2578680</v>
-      </c>
-      <c r="U2">
-        <v>472.36</v>
-      </c>
-      <c r="V2">
+      <c r="T4">
+        <v>2744000</v>
+      </c>
+      <c r="U4">
+        <v>502</v>
+      </c>
+      <c r="V4">
         <v>5900000</v>
       </c>
-      <c r="W2">
-        <v>485550</v>
-      </c>
-      <c r="X2">
-        <v>363.91</v>
-      </c>
-      <c r="Y2">
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
         <v>177000</v>
       </c>
-      <c r="Z2">
-        <v>1170</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
+      <c r="Z4">
+        <v>1120</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
         <v>1310000</v>
       </c>
-      <c r="AC2">
-        <v>270270</v>
-      </c>
-      <c r="AD2">
-        <v>648.29</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
+      <c r="AC4">
+        <v>210560</v>
+      </c>
+      <c r="AD4">
+        <v>504.51</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
         <v>7340000</v>
       </c>
-      <c r="AI2">
-        <v>1125540</v>
-      </c>
-      <c r="AJ2">
-        <v>9194.15</v>
-      </c>
-      <c r="AK2">
+      <c r="AI4">
+        <v>1130080</v>
+      </c>
+      <c r="AJ4">
+        <v>9204.17</v>
+      </c>
+      <c r="AK4">
         <v>280000</v>
       </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>654030</v>
-      </c>
-      <c r="AP2">
-        <v>7634.88</v>
-      </c>
-      <c r="AQ2" t="s">
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>594720</v>
+      </c>
+      <c r="AP4">
+        <v>6920.07</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44">
+      <c r="A5" t="s">
         <v>47</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="B5">
+        <v>138</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5">
+        <v>11200000</v>
+      </c>
+      <c r="F5">
+        <v>25600</v>
+      </c>
+      <c r="G5">
+        <v>5940000</v>
+      </c>
+      <c r="H5">
+        <v>5233760</v>
+      </c>
+      <c r="I5">
+        <v>1044.48</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1050000</v>
+      </c>
+      <c r="N5">
+        <v>423360</v>
+      </c>
+      <c r="O5">
+        <v>1617.92</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>69440</v>
+      </c>
+      <c r="R5">
+        <v>949.76</v>
+      </c>
+      <c r="S5">
+        <v>4880000</v>
+      </c>
+      <c r="T5">
+        <v>2745120</v>
+      </c>
+      <c r="U5">
+        <v>501.76</v>
+      </c>
+      <c r="V5">
+        <v>5900000</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>177000</v>
+      </c>
+      <c r="Z5">
+        <v>1120</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>1310000</v>
+      </c>
+      <c r="AC5">
+        <v>210560</v>
+      </c>
+      <c r="AD5">
+        <v>504.32</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>7340000</v>
+      </c>
+      <c r="AI5">
+        <v>1130080</v>
+      </c>
+      <c r="AJ5">
+        <v>9208.32</v>
+      </c>
+      <c r="AK5">
+        <v>280000</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>594720</v>
+      </c>
+      <c r="AP5">
+        <v>6922.24</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44">
+      <c r="A6" t="s">
         <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6">
+        <v>11100000</v>
+      </c>
+      <c r="F6">
+        <v>28500</v>
+      </c>
+      <c r="G6">
+        <v>5940000</v>
+      </c>
+      <c r="H6">
+        <v>5215890</v>
+      </c>
+      <c r="I6">
+        <v>1043.1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1050000</v>
+      </c>
+      <c r="N6">
+        <v>404040</v>
+      </c>
+      <c r="O6">
+        <v>1547.55</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>68820</v>
+      </c>
+      <c r="R6">
+        <v>940.5</v>
+      </c>
+      <c r="S6">
+        <v>4880000</v>
+      </c>
+      <c r="T6">
+        <v>2596290</v>
+      </c>
+      <c r="U6">
+        <v>475.95</v>
+      </c>
+      <c r="V6">
+        <v>5900000</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>177000</v>
+      </c>
+      <c r="Z6">
+        <v>1110</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>1310000</v>
+      </c>
+      <c r="AC6">
+        <v>-5550</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>7340000</v>
+      </c>
+      <c r="AI6">
+        <v>1092240</v>
+      </c>
+      <c r="AJ6">
+        <v>8920.5</v>
+      </c>
+      <c r="AK6">
+        <v>280000</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>562770</v>
+      </c>
+      <c r="AP6">
+        <v>6563.55</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/states/Belgio.xlsx
+++ b/states/Belgio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR2"/>
+  <dimension ref="A1:AR3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -705,6 +705,146 @@
       <c r="AQ2" t="inlineStr"/>
       <c r="AR2" t="inlineStr"/>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>17:10 16-04-2022</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>10400000</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20100</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5940000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4968080</v>
+      </c>
+      <c r="I3" t="n">
+        <v>994.95</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1050000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>353600</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1356.75</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>67600</v>
+      </c>
+      <c r="R3" t="n">
+        <v>920.58</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4880000</v>
+      </c>
+      <c r="T3" t="n">
+        <v>861120</v>
+      </c>
+      <c r="U3" t="n">
+        <v>158.79</v>
+      </c>
+      <c r="V3" t="n">
+        <v>5900000</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1511120</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1135.65</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>177000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>2080</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1310000</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>-64480</v>
+      </c>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>7340000</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>884000</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>7231.98</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>280000</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
+        <v>655200</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>7658.1</v>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Germania_1000000.0_-550160.0_1063.29; Gran Bretagna_1000000.0_-726960.0_1404.99; Lussemburgo_nan_-228800.0_442.2; Paesi Bassi_nan_-1467440.0_2836.11;</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Francia_nan_1099280.0_643.2;</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/states/Belgio.xlsx
+++ b/states/Belgio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR2"/>
+  <dimension ref="A1:AR3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,20 +661,14 @@
           <t>17:37 16-04-2022</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="B2" t="n">
+        <v>116</v>
+      </c>
+      <c r="C2" t="n">
+        <v>84</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30</v>
       </c>
       <c r="E2" t="n">
         <v>10400000</v>
@@ -792,6 +786,142 @@
       <c r="AR2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Francia_nan_1099280.0_643.2;</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>17:47 16-04-2022</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>10700000</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10600</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5940000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5424900</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1086.5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1050000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>425860</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1633.46</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4880000</v>
+      </c>
+      <c r="T3" t="n">
+        <v>661260</v>
+      </c>
+      <c r="U3" t="n">
+        <v>121.9</v>
+      </c>
+      <c r="V3" t="n">
+        <v>5900000</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2443880</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1835.92</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>177000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1310000</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>-159430</v>
+      </c>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>7340000</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>646280</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>5289.4</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>280000</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Germania_1000000.0_-548910.0_543.78; Gran Bretagna_1000000.0_-702990.0_696.42; Lussemburgo_nan_-227910.0_226.84; Paesi Bassi_nan_-1486230.0_1472.34;</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Francia_nan_1096750.0_632.82;</t>
         </is>
       </c>
     </row>
